--- a/Lab02/step02/2_2_plots.xlsx
+++ b/Lab02/step02/2_2_plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\John Doe\Documents\GitHub\Computer-Architecture\Lab02\step02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D3F258-021A-4FE6-9AD0-E973E25FDFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA00518-981D-4DF0-81F1-AE531619C295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="3765" windowWidth="19125" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>Cache Line Size</t>
   </si>
@@ -64,18 +64,6 @@
   </si>
   <si>
     <t>8kB</t>
-  </si>
-  <si>
-    <t>Reference System</t>
-  </si>
-  <si>
-    <t>Optimized System</t>
-  </si>
-  <si>
-    <t>CPI</t>
-  </si>
-  <si>
-    <t>Simulation Time</t>
   </si>
   <si>
     <t>L1_Data Assoc</t>
@@ -205,11 +193,24 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CPI</a:t>
+              <a:t>CPI vs L1_Data Cache</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33511943918402604"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -243,19 +244,173 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$A$46</c:f>
+              <c:f>Φύλλο1!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Reference System</c:v>
+                  <c:v>8kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Φύλλο1!$J$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$J$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.851421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3892850000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.704834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.484758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0786600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4B0-4A64-882B-9D94CE554452}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Φύλλο1!$J$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$J$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7679229999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2990919999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.669492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1928319999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0767670000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4B0-4A64-882B-9D94CE554452}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32kB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -270,67 +425,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="el-GR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$B$45:$F$45</c:f>
+              <c:f>Φύλλο1!$J$1:$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -353,7 +450,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$B$46:$F$46</c:f>
+              <c:f>Φύλλο1!$J$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -377,27 +474,27 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22B5-45E2-A23D-7C33CF83DDC9}"/>
+              <c16:uniqueId val="{00000002-D4B0-4A64-882B-9D94CE554452}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$A$47</c:f>
+              <c:f>Φύλλο1!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Optimized System</c:v>
+                  <c:v>64kB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -405,67 +502,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="el-GR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$B$45:$F$45</c:f>
+              <c:f>Φύλλο1!$J$1:$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -488,55 +527,130 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$B$47:$F$47</c:f>
+              <c:f>Φύλλο1!$J$5:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.55619</c:v>
+                  <c:v>1.669551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1832309999999999</c:v>
+                  <c:v>1.2054579999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.690601</c:v>
+                  <c:v>2.640374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.120568</c:v>
+                  <c:v>1.146118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7942079999999998</c:v>
+                  <c:v>7.0750390000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-22B5-45E2-A23D-7C33CF83DDC9}"/>
+              <c16:uniqueId val="{00000003-D4B0-4A64-882B-9D94CE554452}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Φύλλο1!$J$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$J$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6348419999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1881649999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6355149999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1445099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0747689999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D4B0-4A64-882B-9D94CE554452}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="463616864"/>
-        <c:axId val="463610960"/>
+        <c:axId val="457644928"/>
+        <c:axId val="457647224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="463616864"/>
+        <c:axId val="457644928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -574,7 +688,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463610960"/>
+        <c:crossAx val="457647224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -582,12 +696,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463610960"/>
+        <c:axId val="457647224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -633,7 +747,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463616864"/>
+        <c:crossAx val="457644928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -748,8 +862,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Simulation Time</a:t>
+              <a:t>CPI vs L1_Instruction Cache</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -786,19 +905,173 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$I$46</c:f>
+              <c:f>Φύλλο1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Reference System</c:v>
+                  <c:v>8kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Φύλλο1!$R$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$R$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6702729999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3359559999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6405509999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.958887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0797230000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF42-4352-B86F-2F5D9F8F8248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Φύλλο1!$R$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$R$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.669961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.334838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6404529999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5893269999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0764519999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF42-4352-B86F-2F5D9F8F8248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32kB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -813,67 +1086,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="el-GR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$J$45:$N$45</c:f>
+              <c:f>Φύλλο1!$R$1:$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -896,51 +1111,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$J$46:$N$46</c:f>
+              <c:f>Φύλλο1!$R$4:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.17080200000000001</c:v>
+                  <c:v>1.6693439999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12617100000000001</c:v>
+                  <c:v>1.3338950000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26506400000000002</c:v>
+                  <c:v>2.6404200000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.115552</c:v>
+                  <c:v>1.328247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70755299999999999</c:v>
+                  <c:v>7.0750500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F870-4DA7-A36A-B7B40A223C4A}"/>
+              <c16:uniqueId val="{00000002-CF42-4352-B86F-2F5D9F8F8248}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$I$47</c:f>
+              <c:f>Φύλλο1!$Q$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Optimized System</c:v>
+                  <c:v>64kB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -948,67 +1163,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="el-GR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$J$45:$N$45</c:f>
+              <c:f>Φύλλο1!$R$1:$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1031,55 +1188,130 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$J$47:$N$47</c:f>
+              <c:f>Φύλλο1!$R$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.15561900000000001</c:v>
+                  <c:v>1.669551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.118323</c:v>
+                  <c:v>1.2054579999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16905999999999999</c:v>
+                  <c:v>2.640374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.112057</c:v>
+                  <c:v>1.146118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37942100000000001</c:v>
+                  <c:v>7.0750390000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F870-4DA7-A36A-B7B40A223C4A}"/>
+              <c16:uniqueId val="{00000003-CF42-4352-B86F-2F5D9F8F8248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$Q$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Φύλλο1!$R$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$R$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.669551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2053700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.640374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.146093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0750539999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CF42-4352-B86F-2F5D9F8F8248}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="454100432"/>
-        <c:axId val="454100760"/>
+        <c:axId val="457644928"/>
+        <c:axId val="457647224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="454100432"/>
+        <c:axId val="457644928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1117,7 +1349,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454100760"/>
+        <c:crossAx val="457647224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1125,12 +1357,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="454100760"/>
+        <c:axId val="457647224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1176,7 +1408,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454100432"/>
+        <c:crossAx val="457644928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1291,7 +1523,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CPI vs L1_Data Cache</a:t>
+              <a:t>CPI vs L2 Cache</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1301,14 +1533,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.33511943918402604"/>
-          <c:y val="3.2407407407407406E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1350,11 +1574,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$I$2</c:f>
+              <c:f>Φύλλο1!$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8kB</c:v>
+                  <c:v>128kB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1371,7 +1595,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$J$1:$N$1</c:f>
+              <c:f>Φύλλο1!$Z$1:$AD$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1394,31 +1618,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$J$2:$N$2</c:f>
+              <c:f>Φύλλο1!$Z$2:$AD$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.851421</c:v>
+                  <c:v>1.864395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3892850000000001</c:v>
+                  <c:v>1.2737830000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.704834</c:v>
+                  <c:v>2.6505019999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.484758</c:v>
+                  <c:v>1.159626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0786600000000002</c:v>
+                  <c:v>7.0757110000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D4B0-4A64-882B-9D94CE554452}"/>
+              <c16:uniqueId val="{00000000-6001-4283-9CB6-E4CAD241663E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1427,11 +1651,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$I$3</c:f>
+              <c:f>Φύλλο1!$Y$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16kB</c:v>
+                  <c:v>256kB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1448,7 +1672,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$J$1:$N$1</c:f>
+              <c:f>Φύλλο1!$Z$1:$AD$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1471,31 +1695,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$J$3:$N$3</c:f>
+              <c:f>Φύλλο1!$Z$3:$AD$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7679229999999999</c:v>
+                  <c:v>1.7608079999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2990919999999999</c:v>
+                  <c:v>1.2627060000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.669492</c:v>
+                  <c:v>2.6516359999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1928319999999999</c:v>
+                  <c:v>1.157546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0767670000000003</c:v>
+                  <c:v>7.0757669999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D4B0-4A64-882B-9D94CE554452}"/>
+              <c16:uniqueId val="{00000001-6001-4283-9CB6-E4CAD241663E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1504,11 +1728,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$I$4</c:f>
+              <c:f>Φύλλο1!$Y$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32kB</c:v>
+                  <c:v>512kB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1525,7 +1749,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$J$1:$N$1</c:f>
+              <c:f>Φύλλο1!$Z$1:$AD$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1548,7 +1772,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$J$4:$N$4</c:f>
+              <c:f>Φύλλο1!$Z$4:$AD$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1572,7 +1796,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D4B0-4A64-882B-9D94CE554452}"/>
+              <c16:uniqueId val="{00000002-6001-4283-9CB6-E4CAD241663E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1581,11 +1805,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$I$5</c:f>
+              <c:f>Φύλλο1!$Y$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64kB</c:v>
+                  <c:v>1024kB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1602,7 +1826,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$J$1:$N$1</c:f>
+              <c:f>Φύλλο1!$Z$1:$AD$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1625,108 +1849,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$J$5:$N$5</c:f>
+              <c:f>Φύλλο1!$Z$5:$AD$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.669551</c:v>
+                  <c:v>1.684671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2054579999999999</c:v>
+                  <c:v>1.261711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.640374</c:v>
+                  <c:v>2.6499839999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.146118</c:v>
+                  <c:v>1.1534169999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0750390000000003</c:v>
+                  <c:v>7.0751249999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D4B0-4A64-882B-9D94CE554452}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Φύλλο1!$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>128kB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Φύλλο1!$J$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>bzip</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>libm</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sjeng</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Φύλλο1!$J$6:$N$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.6348419999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1881649999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6355149999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1445099999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0747689999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D4B0-4A64-882B-9D94CE554452}"/>
+              <c16:uniqueId val="{00000003-6001-4283-9CB6-E4CAD241663E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1960,13 +2107,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CPI vs L1_Instruction Cache</a:t>
+              <a:t>CPI vs Cache Line Size</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Size</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2011,11 +2153,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$Q$2</c:f>
+              <c:f>Φύλλο1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8kB</c:v>
+                  <c:v>16kB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2032,7 +2174,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$R$1:$V$1</c:f>
+              <c:f>Φύλλο1!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2055,31 +2197,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$R$2:$V$2</c:f>
+              <c:f>Φύλλο1!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6702729999999999</c:v>
+                  <c:v>1.996467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3359559999999999</c:v>
+                  <c:v>1.2501960000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6405509999999999</c:v>
+                  <c:v>6.6175309999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.958887</c:v>
+                  <c:v>1.281242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0797230000000004</c:v>
+                  <c:v>21.933584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF42-4352-B86F-2F5D9F8F8248}"/>
+              <c16:uniqueId val="{00000000-C2CB-4115-A8E3-8C8833B727C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2088,11 +2230,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$Q$3</c:f>
+              <c:f>Φύλλο1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16kB</c:v>
+                  <c:v>32kB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2109,7 +2251,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$R$1:$V$1</c:f>
+              <c:f>Φύλλο1!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2132,31 +2274,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$R$3:$V$3</c:f>
+              <c:f>Φύλλο1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.669961</c:v>
+                  <c:v>1.8201959999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.334838</c:v>
+                  <c:v>1.2444090000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6404529999999999</c:v>
+                  <c:v>3.929154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5893269999999999</c:v>
+                  <c:v>1.166034</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0764519999999997</c:v>
+                  <c:v>11.677137999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CF42-4352-B86F-2F5D9F8F8248}"/>
+              <c16:uniqueId val="{00000001-C2CB-4115-A8E3-8C8833B727C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2165,11 +2307,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$Q$4</c:f>
+              <c:f>Φύλλο1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32kB</c:v>
+                  <c:v>64kB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2186,7 +2328,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$R$1:$V$1</c:f>
+              <c:f>Φύλλο1!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2209,31 +2351,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$R$4:$V$4</c:f>
+              <c:f>Φύλλο1!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6693439999999999</c:v>
+                  <c:v>1.7080169999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3338950000000001</c:v>
+                  <c:v>1.261711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6404200000000002</c:v>
+                  <c:v>2.6506349999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.328247</c:v>
+                  <c:v>1.155519</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0750500000000001</c:v>
+                  <c:v>7.0755270000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CF42-4352-B86F-2F5D9F8F8248}"/>
+              <c16:uniqueId val="{00000002-C2CB-4115-A8E3-8C8833B727C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2242,11 +2384,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$Q$5</c:f>
+              <c:f>Φύλλο1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64kB</c:v>
+                  <c:v>128kB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2263,7 +2405,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$R$1:$V$1</c:f>
+              <c:f>Φύλλο1!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2286,31 +2428,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$R$5:$V$5</c:f>
+              <c:f>Φύλλο1!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.669551</c:v>
+                  <c:v>1.7125239999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2054579999999999</c:v>
+                  <c:v>1.297228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.640374</c:v>
+                  <c:v>2.027326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.146118</c:v>
+                  <c:v>1.140741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0750390000000003</c:v>
+                  <c:v>5.0274869999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CF42-4352-B86F-2F5D9F8F8248}"/>
+              <c16:uniqueId val="{00000003-C2CB-4115-A8E3-8C8833B727C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2319,11 +2461,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$Q$6</c:f>
+              <c:f>Φύλλο1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128kB</c:v>
+                  <c:v>256kB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2340,7 +2482,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$R$1:$V$1</c:f>
+              <c:f>Φύλλο1!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2363,31 +2505,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$R$6:$V$6</c:f>
+              <c:f>Φύλλο1!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.669551</c:v>
+                  <c:v>1.7433289999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2053700000000001</c:v>
+                  <c:v>1.3300160000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.640374</c:v>
+                  <c:v>1.7303550000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.146093</c:v>
+                  <c:v>1.1977439999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0750539999999997</c:v>
+                  <c:v>3.7958820000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CF42-4352-B86F-2F5D9F8F8248}"/>
+              <c16:uniqueId val="{00000004-C2CB-4115-A8E3-8C8833B727C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2621,13 +2763,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CPI vs L2 Cache</a:t>
+              <a:t>CPI vs L1_Data Cache Associativity</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Size</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2672,11 +2809,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$Y$2</c:f>
+              <c:f>Φύλλο1!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128kB</c:v>
+                  <c:v>1st</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2693,7 +2830,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$Z$1:$AD$1</c:f>
+              <c:f>Φύλλο1!$B$23:$F$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2716,31 +2853,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$Z$2:$AD$2</c:f>
+              <c:f>Φύλλο1!$B$24:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.864395</c:v>
+                  <c:v>1.7080169999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2737830000000001</c:v>
+                  <c:v>1.261711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6505019999999999</c:v>
+                  <c:v>2.62425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.159626</c:v>
+                  <c:v>1.1449499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0757110000000001</c:v>
+                  <c:v>7.0554379999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6001-4283-9CB6-E4CAD241663E}"/>
+              <c16:uniqueId val="{00000000-B8FE-48EF-A5C5-7CC20960437A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2749,11 +2886,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$Y$3</c:f>
+              <c:f>Φύλλο1!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>256kB</c:v>
+                  <c:v>2st</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2770,7 +2907,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$Z$1:$AD$1</c:f>
+              <c:f>Φύλλο1!$B$23:$F$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2793,31 +2930,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$Z$3:$AD$3</c:f>
+              <c:f>Φύλλο1!$B$25:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7608079999999999</c:v>
+                  <c:v>1.686267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2627060000000001</c:v>
+                  <c:v>1.188051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6516359999999999</c:v>
+                  <c:v>2.6243059999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.157546</c:v>
+                  <c:v>1.1451309999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0757669999999999</c:v>
+                  <c:v>7.0555089999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6001-4283-9CB6-E4CAD241663E}"/>
+              <c16:uniqueId val="{00000001-B8FE-48EF-A5C5-7CC20960437A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2826,11 +2963,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$Y$4</c:f>
+              <c:f>Φύλλο1!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>512kB</c:v>
+                  <c:v>4st</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2847,7 +2984,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$Z$1:$AD$1</c:f>
+              <c:f>Φύλλο1!$B$23:$F$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2870,31 +3007,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$Z$4:$AD$4</c:f>
+              <c:f>Φύλλο1!$B$26:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7080169999999999</c:v>
+                  <c:v>1.6729719999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.261711</c:v>
+                  <c:v>1.1864490000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6506349999999999</c:v>
+                  <c:v>2.62425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.155519</c:v>
+                  <c:v>1.144925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0755270000000001</c:v>
+                  <c:v>7.0554420000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6001-4283-9CB6-E4CAD241663E}"/>
+              <c16:uniqueId val="{00000002-B8FE-48EF-A5C5-7CC20960437A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2903,11 +3040,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Φύλλο1!$Y$5</c:f>
+              <c:f>Φύλλο1!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1024kB</c:v>
+                  <c:v>8st</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2924,7 +3061,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$Z$1:$AD$1</c:f>
+              <c:f>Φύλλο1!$B$23:$F$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2947,31 +3084,108 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$Z$5:$AD$5</c:f>
+              <c:f>Φύλλο1!$B$27:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.684671</c:v>
+                  <c:v>1.665842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.261711</c:v>
+                  <c:v>1.1864170000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6499839999999999</c:v>
+                  <c:v>2.62425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1534169999999999</c:v>
+                  <c:v>1.144692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0751249999999999</c:v>
+                  <c:v>7.0554420000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6001-4283-9CB6-E4CAD241663E}"/>
+              <c16:uniqueId val="{00000003-B8FE-48EF-A5C5-7CC20960437A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16st</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Φύλλο1!$B$23:$F$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6591990000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.186409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.62425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1449499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0554379999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B8FE-48EF-A5C5-7CC20960437A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3205,1318 +3419,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CPI vs Cache Line Size</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Φύλλο1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16kB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Φύλλο1!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>bzip</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>libm</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sjeng</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Φύλλο1!$B$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.996467</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2501960000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6175309999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.281242</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.933584</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C2CB-4115-A8E3-8C8833B727C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Φύλλο1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32kB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Φύλλο1!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>bzip</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>libm</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sjeng</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Φύλλο1!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.8201959999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2444090000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.929154</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.166034</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.677137999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C2CB-4115-A8E3-8C8833B727C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Φύλλο1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>64kB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Φύλλο1!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>bzip</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>libm</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sjeng</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Φύλλο1!$B$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.7080169999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.261711</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6506349999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.155519</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0755270000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C2CB-4115-A8E3-8C8833B727C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Φύλλο1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>128kB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Φύλλο1!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>bzip</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>libm</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sjeng</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Φύλλο1!$B$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.7125239999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.297228</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.027326</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.140741</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0274869999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C2CB-4115-A8E3-8C8833B727C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Φύλλο1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>256kB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Φύλλο1!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>bzip</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>libm</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sjeng</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Φύλλο1!$B$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.7433289999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3300160000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7303550000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1977439999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7958820000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C2CB-4115-A8E3-8C8833B727C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="457644928"/>
-        <c:axId val="457647224"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="457644928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="457647224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="457647224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="457644928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CPI vs L1_Data Cache Associativity</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Φύλλο1!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1st</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Φύλλο1!$B$23:$F$23</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>bzip</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>libm</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sjeng</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Φύλλο1!$B$24:$F$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.7080169999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.261711</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.62425</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1449499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0554379999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B8FE-48EF-A5C5-7CC20960437A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Φύλλο1!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2st</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Φύλλο1!$B$23:$F$23</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>bzip</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>libm</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sjeng</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Φύλλο1!$B$25:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.686267</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.188051</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6243059999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1451309999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0555089999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B8FE-48EF-A5C5-7CC20960437A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Φύλλο1!$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4st</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Φύλλο1!$B$23:$F$23</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>bzip</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>libm</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sjeng</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Φύλλο1!$B$26:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.6729719999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1864490000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.62425</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.144925</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0554420000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B8FE-48EF-A5C5-7CC20960437A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Φύλλο1!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8st</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Φύλλο1!$B$23:$F$23</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>bzip</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>libm</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sjeng</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Φύλλο1!$B$27:$F$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.665842</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1864170000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.62425</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.144692</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0554420000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B8FE-48EF-A5C5-7CC20960437A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Φύλλο1!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16st</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Φύλλο1!$B$23:$F$23</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>bzip</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>libm</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sjeng</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Φύλλο1!$B$28:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.6591990000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.186409</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.62425</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1449499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0554379999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B8FE-48EF-A5C5-7CC20960437A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="457644928"/>
-        <c:axId val="457647224"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="457644928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="457647224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="457647224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="457644928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>CPI vs L1_</a:t>
             </a:r>
             <a:r>
@@ -5148,7 +4050,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6092,86 +4994,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9693,1086 +8515,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{317ACE31-8015-43C1-AA08-F7444F381D14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6311A3F-1B06-4349-A2B3-B92B2096C1A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -10805,7 +8549,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10843,7 +8587,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10881,7 +8625,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10919,7 +8663,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10957,7 +8701,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10995,7 +8739,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11033,7 +8777,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11305,10 +9049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11354,7 +9098,7 @@
         <v>5</v>
       </c>
       <c r="Q1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R1" t="s">
         <v>1</v>
@@ -11372,7 +9116,7 @@
         <v>5</v>
       </c>
       <c r="Y1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z1" t="s">
         <v>1</v>
@@ -11594,7 +9338,7 @@
         <v>7.0750500000000001</v>
       </c>
       <c r="Y4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Z4">
         <v>1.7080169999999999</v>
@@ -11668,7 +9412,7 @@
         <v>7.0750390000000003</v>
       </c>
       <c r="Y5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Z5">
         <v>1.684671</v>
@@ -11742,12 +9486,12 @@
         <v>7.0750539999999997</v>
       </c>
       <c r="Y6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -11765,7 +9509,7 @@
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
         <v>1</v>
@@ -11783,7 +9527,7 @@
         <v>5</v>
       </c>
       <c r="Q23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R23" t="s">
         <v>1</v>
@@ -11803,7 +9547,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>1.7080169999999999</v>
@@ -11821,7 +9565,7 @@
         <v>7.0554379999999997</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J24">
         <v>1.7079519999999999</v>
@@ -11839,7 +9583,7 @@
         <v>7.0755270000000001</v>
       </c>
       <c r="Q24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R24">
         <v>1.686267</v>
@@ -11859,7 +9603,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>1.686267</v>
@@ -11877,7 +9621,7 @@
         <v>7.0555089999999998</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J25">
         <v>1.7079439999999999</v>
@@ -11895,7 +9639,7 @@
         <v>7.075526</v>
       </c>
       <c r="Q25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R25">
         <v>1.7080169999999999</v>
@@ -11915,7 +9659,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>1.6729719999999999</v>
@@ -11933,7 +9677,7 @@
         <v>7.0554420000000002</v>
       </c>
       <c r="I26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J26">
         <v>1.7079439999999999</v>
@@ -11951,7 +9695,7 @@
         <v>7.0755210000000002</v>
       </c>
       <c r="Q26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R26">
         <v>1.7058009999999999</v>
@@ -11971,7 +9715,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>1.665842</v>
@@ -11989,7 +9733,7 @@
         <v>7.0554420000000002</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J27">
         <v>1.7079439999999999</v>
@@ -12007,7 +9751,7 @@
         <v>7.0755270000000001</v>
       </c>
       <c r="Q27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R27">
         <v>1.704658</v>
@@ -12027,7 +9771,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>1.6591990000000001</v>
@@ -12045,7 +9789,7 @@
         <v>7.0554379999999997</v>
       </c>
       <c r="I28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J28">
         <v>1.7079519999999999</v>
@@ -12063,7 +9807,7 @@
         <v>7.0755470000000003</v>
       </c>
       <c r="Q28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R28">
         <v>1.7042299999999999</v>
@@ -12083,120 +9827,6 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K29" s="1"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K45" t="s">
-        <v>2</v>
-      </c>
-      <c r="L45" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46">
-        <v>1.7080169999999999</v>
-      </c>
-      <c r="C46">
-        <v>1.261711</v>
-      </c>
-      <c r="D46">
-        <v>2.6506349999999999</v>
-      </c>
-      <c r="E46">
-        <v>1.155519</v>
-      </c>
-      <c r="F46">
-        <v>7.0755270000000001</v>
-      </c>
-      <c r="I46" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46">
-        <v>0.17080200000000001</v>
-      </c>
-      <c r="K46">
-        <v>0.12617100000000001</v>
-      </c>
-      <c r="L46">
-        <v>0.26506400000000002</v>
-      </c>
-      <c r="M46">
-        <v>0.115552</v>
-      </c>
-      <c r="N46">
-        <v>0.70755299999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47">
-        <v>1.55619</v>
-      </c>
-      <c r="C47">
-        <v>1.1832309999999999</v>
-      </c>
-      <c r="D47">
-        <v>1.690601</v>
-      </c>
-      <c r="E47">
-        <v>1.120568</v>
-      </c>
-      <c r="F47">
-        <v>3.7942079999999998</v>
-      </c>
-      <c r="I47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47">
-        <v>0.15561900000000001</v>
-      </c>
-      <c r="K47">
-        <v>0.118323</v>
-      </c>
-      <c r="L47">
-        <v>0.16905999999999999</v>
-      </c>
-      <c r="M47">
-        <v>0.112057</v>
-      </c>
-      <c r="N47">
-        <v>0.37942100000000001</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
